--- a/5samples_annotator2.xlsx
+++ b/5samples_annotator2.xlsx
@@ -343,25 +343,7 @@
     <t xml:space="preserve">And I have said again and again and again let's get off mud wrestling, let's get off personalities and let's talk about jobs, health care, crime, the things that concern the American people.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Let's stop focusing on personal conflicts and instead discuss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> about jobs, health care, crime, the things that concern the people.</t>
-    </r>
+    <t xml:space="preserve">Let's stop focusing on personal conflicts and instead discuss about jobs, health care, crime, the things that concern the people.</t>
   </si>
   <si>
     <t xml:space="preserve">the greatest engine of prosperity the world's ever known</t>
@@ -473,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -502,12 +484,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -577,17 +553,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -598,27 +570,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -705,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -742,10 +702,10 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1061,7 +1021,7 @@
       <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1126,59 +1086,59 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+    <row r="15" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+    <row r="16" s="5" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1204,7 +1164,7 @@
       <c r="G17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1230,7 +1190,7 @@
       <c r="G18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1262,7 +1222,7 @@
       <c r="I19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1288,7 +1248,7 @@
       <c r="G20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1314,7 +1274,7 @@
       <c r="G21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1343,7 +1303,7 @@
       <c r="H22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1398,7 +1358,7 @@
       <c r="G24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1456,7 +1416,7 @@
       <c r="H26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1482,10 +1442,10 @@
       <c r="G27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1569,7 +1529,7 @@
       <c r="G30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>120</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -1627,7 +1587,7 @@
       <c r="G32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1653,7 +1613,7 @@
       <c r="G33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1679,7 +1639,7 @@
       <c r="G34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1705,7 +1665,7 @@
       <c r="G35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1731,7 +1691,7 @@
       <c r="G36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="7" t="s">
         <v>132</v>
       </c>
     </row>
